--- a/data/hsr/data_hsr_weapon.xlsx
+++ b/data/hsr/data_hsr_weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31945A44-FEDC-4852-AC89-79B1EFFC189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866123A2-35AA-4F6F-8CDA-93592D3E564B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8868" yWindow="3396" windowWidth="11688" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="2928" windowWidth="11688" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_weapon" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>name</t>
     <phoneticPr fontId="18"/>
@@ -174,78 +174,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <r>
-      <t>装備キャラの効果抵抗+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8~16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%。装備キャラが攻撃を受けた後、バリアを持っていない場合、装備キャラの最大HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16~32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%分の耐久値を持つバリアを1つ獲得する、2ターン継続。この効果は3ターンごとに1回発動できる。装備キャラがバリアを持っている場合、自身の被ダメージ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12~24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%。</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>世界の名を以て</t>
     <rPh sb="0" eb="2">
       <t>セカイ</t>
@@ -259,128 +187,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <r>
-      <t>デバフ状態の敵に対して、装備キャラの与ダメージ+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>24~40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%。装備キャラが戦闘スキルを発動した時、その攻撃の効果命中+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18~30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%、攻撃力+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>24~40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%。</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <t>フィールド上にいる敵1体につき、装備キャラの攻撃力+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9.0~15.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%、この効果は最大で5層累積できる。敵が弱点撃破された時、装備キャラの与ダメージ+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30~50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%、1ターン継続。</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>時節は居らず</t>
     <rPh sb="0" eb="2">
       <t>ジセツ</t>
@@ -392,272 +198,6 @@
   </si>
   <si>
     <r>
-      <t>装備キャラの攻撃力+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>24~40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%。装備キャラが敵を倒す、または攻撃を受けた後、装備キャラの攻撃力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8~12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%分のHPを回復し、与ダメージ+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>24~40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%、効果は自身の次のターンが終了するまで継続。この効果は累積できず、ターンが回ってくるたびに1回まで発動できる。</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <t>装備キャラの会心率+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18~30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%。戦闘中に装備キャラの速度が100を超えた時、10超過するにつき、通常攻撃と戦闘スキルの与ダメージ+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6~10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%、必殺技の会心ダメージ+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12~20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%、最大で6層累積できる。</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <t>装備キャラのEP回復効率+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10~18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%。味方に対して必殺技を発動すると、SPを1回復する、この効果は必殺技を2回発動するたびに1回発動できる。装備キャラが戦闘スキルを発動した後、次に行動する他の味方の与ダメージ+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30~50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%、1ターン継続。</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <t>装備キャラの最大HP+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18~30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%、治癒量+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12~20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%。装備キャラが味方に治癒を行った時、治癒量が記録される。任意の味方が攻撃を行った後、攻撃を受けたランダムな敵1体に対して、装備キャラの属性と同じ属性で、記録された治癒量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>36~60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%分の付加ダメージを与える。このダメージはバフの影響を受けず、ターンが回ってくるたびに1回まで発生する。</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
       <t>装備キャラが攻撃した時、今回の戦闘中、装備キャラの攻撃力+&lt;span class='red'&gt;</t>
     </r>
     <r>
@@ -794,10 +334,612 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>交換/ガチャ</t>
+    <t>勝利の刹那</t>
     <rPh sb="0" eb="2">
-      <t>コウカン</t>
-    </rPh>
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツナ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>泥の如き眠り</t>
+    <rPh sb="0" eb="1">
+      <t>ドロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネム</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>星芒/ガチャ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの効果抵抗+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8~16&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラが攻撃を受けた後、バリアを持っていない場合、装備キャラの最大HP&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16~32&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%分の耐久値を持つバリアを1つ獲得する、2ターン継続。この効果は3ターンごとに1回発動できる。装備キャラがバリアを持っている場合、自身の被ダメージ-&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12~24&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>フィールド上にいる敵1体につき、装備キャラの攻撃力+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.0~15.0&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、この効果は最大で5層累積できる。敵が弱点撃破された時、装備キャラの与ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30~50&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、1ターン継続。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>デバフ状態の敵に対して、装備キャラの与ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラが戦闘スキルを発動した時、その攻撃の効果命中+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18~30&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、攻撃力+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの攻撃力+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラが敵を倒す、または攻撃を受けた後、装備キャラの攻撃力&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8~12&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%分のHPを回復し、与ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、効果は自身の次のターンが終了するまで継続。この効果は累積できず、ターンが回ってくるたびに1回まで発動できる。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの最大HP+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18~30&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、治癒量+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12~20&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラが味方に治癒を行った時、治癒量が記録される。任意の味方が攻撃を行った後、攻撃を受けたランダムな敵1体に対して、装備キャラの属性と同じ属性で、記録された治癒量&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36~60&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%分の付加ダメージを与える。このダメージはバフの影響を受けず、ターンが回ってくるたびに1回まで発生する。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの会心ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30~50&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラの通常攻撃または戦闘スキルで、会心が発生しなかった時、自身の会心率+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36~60&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、1ターン継続。この効果は3ターンごとに1回発動できる。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの防御力+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、効果命中+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。自身が攻撃を受ける確率がアップする。装備キャラが攻撃を受けた後、さらに防御力+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、効果は自身のターンが終了するまで継続。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの会心率+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18~30&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。戦闘中に装備キャラの速度が100を超えた時、10超過するにつき、通常攻撃と戦闘スキルの与ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6~10&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、必殺技の会心ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12~20&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、最大で6層累積できる。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラのEP回復効率+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10~18&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。味方に対して必殺技を発動すると、SPを1回復する、この効果は必殺技を2回発動するたびに1回発動できる。装備キャラが戦闘スキルを発動した後、次に行動する他の味方の与ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30~50&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、1ターン継続。</t>
+    </r>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1459,7 +1601,42 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE9DED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE9DED"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1812,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -1850,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>19</v>
@@ -1879,10 +2056,10 @@
         <v>396</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -1908,10 +2085,10 @@
         <v>463</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -1937,10 +2114,10 @@
         <v>529</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -1966,10 +2143,10 @@
         <v>396</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -1977,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1995,10 +2172,10 @@
         <v>463</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -2024,10 +2201,10 @@
         <v>396</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -2035,28 +2212,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>1058</v>
+        <v>1164</v>
       </c>
       <c r="F8" s="1">
-        <v>582</v>
+        <v>529</v>
       </c>
       <c r="G8" s="1">
         <v>463</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -2064,28 +2241,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1">
-        <v>1164</v>
+        <v>1270</v>
       </c>
       <c r="F9" s="1">
-        <v>529</v>
+        <v>476</v>
       </c>
       <c r="G9" s="1">
         <v>463</v>
       </c>
       <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -2093,48 +2270,106 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
-        <v>1270</v>
+        <v>1058</v>
       </c>
       <c r="F10" s="1">
         <v>476</v>
       </c>
       <c r="G10" s="1">
+        <v>595</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1058</v>
+      </c>
+      <c r="F11" s="1">
+        <v>582</v>
+      </c>
+      <c r="G11" s="1">
         <v>463</v>
       </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1058</v>
+      </c>
+      <c r="F12" s="1">
+        <v>582</v>
+      </c>
+      <c r="G12" s="1">
+        <v>463</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="C1:C10 C15:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/hsr/data_hsr_weapon.xlsx
+++ b/data/hsr/data_hsr_weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main-01\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866123A2-35AA-4F6F-8CDA-93592D3E564B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71744467-45B4-4FB3-A973-56B1C5DC7247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="2928" windowWidth="11688" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1596" windowWidth="15372" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_weapon" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>name</t>
     <phoneticPr fontId="18"/>
@@ -939,6 +939,92 @@
         <scheme val="minor"/>
       </rPr>
       <t>%、1ターン継続。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>夜明け前</t>
+    <rPh sb="0" eb="2">
+      <t>ヨア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>まだ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの会心ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36~60&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラの戦闘スキルと必殺技の与ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18~30&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラが戦闘スキル、または必殺技を発動した後、「夢身」効果を獲得する。追加攻撃を発動した時、「夢身」を消費し、追加攻撃の与ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48~80&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。</t>
     </r>
     <phoneticPr fontId="18"/>
   </si>
@@ -1601,7 +1687,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1634,41 +1720,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFAE9DED"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAE9DED"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAE9DED"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1989,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -2350,6 +2401,35 @@
       </c>
       <c r="I12" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1058</v>
+      </c>
+      <c r="F13" s="1">
+        <v>582</v>
+      </c>
+      <c r="G13" s="1">
+        <v>463</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hsr/data_hsr_weapon.xlsx
+++ b/data/hsr/data_hsr_weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main-01\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71744467-45B4-4FB3-A973-56B1C5DC7247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DF87C8-2204-4300-B877-33A86C73AC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1596" windowWidth="15372" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="996" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_weapon" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>name</t>
     <phoneticPr fontId="18"/>
@@ -950,10 +950,6 @@
     <rPh sb="3" eb="4">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>まだ</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -2042,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -2426,10 +2422,10 @@
         <v>463</v>
       </c>
       <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hsr/data_hsr_weapon.xlsx
+++ b/data/hsr/data_hsr_weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main-01\damageTool-main\data\hsr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DF87C8-2204-4300-B877-33A86C73AC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA1209-F39D-4129-A239-ADDAA84DBD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="996" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="948" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_weapon" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>name</t>
     <phoneticPr fontId="18"/>
@@ -1021,6 +1021,88 @@
         <scheme val="minor"/>
       </rPr>
       <t>%。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>降りやまぬ雨</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの効果命中+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。デバフが3つ以上ある敵に対して、装備キャラの会心率+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12~20&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラが通常攻撃、戦闘スキル、必殺技を発動した後、100%の基礎確率で攻撃を受けた敵の中から、「エーテルコード」を付与されてないランダムな敵1体に「エーテルコード」を付与する。「エーテルコード」を付与された敵の被ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12~20&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、1ターン継続。</t>
     </r>
     <phoneticPr fontId="18"/>
   </si>
@@ -1701,13 +1783,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1716,6 +1791,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFAE9DED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2036,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -2428,24 +2510,53 @@
         <v>42</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1058</v>
+      </c>
+      <c r="F14" s="1">
+        <v>582</v>
+      </c>
+      <c r="G14" s="1">
+        <v>463</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/hsr/data_hsr_weapon.xlsx
+++ b/data/hsr/data_hsr_weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA1209-F39D-4129-A239-ADDAA84DBD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0494177A-4396-4EEB-A6C7-720D4BF7C3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="948" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2676" yWindow="924" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_hsr_weapon" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>name</t>
     <phoneticPr fontId="18"/>
@@ -1103,6 +1103,85 @@
         <scheme val="minor"/>
       </rPr>
       <t>%、1ターン継続。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>棺のこだま</t>
+    <rPh sb="0" eb="1">
+      <t>ヒツギ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの攻撃力+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラが攻撃を行った後、異なる敵に攻撃が命中するごとにEPを&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3~5&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回復する。1回の攻撃で、この効果を通して最大で3回EPを回復できる。装備キャラが必殺技を発動した後、味方全体の速度+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12~20&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、1ターン継続。</t>
     </r>
     <phoneticPr fontId="18"/>
   </si>
@@ -2118,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -2537,6 +2616,35 @@
       </c>
       <c r="I14" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1164</v>
+      </c>
+      <c r="F15" s="1">
+        <v>582</v>
+      </c>
+      <c r="G15" s="1">
+        <v>396</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/hsr/data_hsr_weapon.xlsx
+++ b/data/hsr/data_hsr_weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\damageTool-main\damageTool-main\data\hsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0494177A-4396-4EEB-A6C7-720D4BF7C3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3622D2A6-3530-4ECC-90A2-CD3ACDDDE4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2676" yWindow="924" windowWidth="14520" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>name</t>
     <phoneticPr fontId="18"/>
@@ -1182,6 +1182,353 @@
         <scheme val="minor"/>
       </rPr>
       <t>、1ターン継続。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>着かない彼岸</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒガン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの会心率+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18~30&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、最大HP+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18~30&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラが攻撃を受ける、または自身のHPを消費すると、与ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、この効果は装備キャラが攻撃を行った後に解除される。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>待つのみ</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの与ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>％。装備キャラが攻撃を行った後、速度+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.8~8&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>％、最大で3層累積できる。装備キャラの攻撃が命中した時、その敵が「遊糸」状態でない場合、100％の基礎確率で敵を「遊糸」状態にする。敵が「遊糸」状態の場合、感電状態とみなされる。「遊糸」状態の敵はターンが回ってくるたびに、装備キャラの攻撃力&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60~100&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>％分の雷属性持続ダメージを受ける、1ターン継続。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>陽光より輝くもの</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カガヤ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの会心率+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18~30&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラが通常攻撃を行った時、「龍吟」を1層獲得する、2ターン継続。「龍吟」1層につき、装備キャラの攻撃力+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18~30&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、EP回復効率+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6~10&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。「龍吟」は最大で2層累積できる。</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>閉ざした瞳</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒトミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>装備キャラの最大HP+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24~40&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、EP回復効率+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12~20&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%。装備キャラのHPが減った時、味方全体の与ダメージ+&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9~15&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%、2ターン継続。各ウェーブ開始時、味方全体のHPをそれぞれ失ったHPの&lt;span class='red'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80~100&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%分回復する。</t>
     </r>
     <phoneticPr fontId="18"/>
   </si>
@@ -2197,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -2645,6 +2992,122 @@
       </c>
       <c r="I15" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1270</v>
+      </c>
+      <c r="F16" s="1">
+        <v>582</v>
+      </c>
+      <c r="G16" s="1">
+        <v>330</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1058</v>
+      </c>
+      <c r="F17" s="1">
+        <v>582</v>
+      </c>
+      <c r="G17" s="1">
+        <v>463</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1058</v>
+      </c>
+      <c r="F18" s="1">
+        <v>635</v>
+      </c>
+      <c r="G18" s="1">
+        <v>396</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1270</v>
+      </c>
+      <c r="F19" s="1">
+        <v>423</v>
+      </c>
+      <c r="G19" s="1">
+        <v>529</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
